--- a/Code/Results/Cases/Case_2_191/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_191/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9893062815937663</v>
+        <v>1.042525944612522</v>
       </c>
       <c r="D2">
-        <v>1.009894347414147</v>
+        <v>1.043127549228891</v>
       </c>
       <c r="E2">
-        <v>0.9912977788554295</v>
+        <v>1.055437458977725</v>
       </c>
       <c r="F2">
-        <v>0.9956116096757812</v>
+        <v>1.062408188199581</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041537531840828</v>
+        <v>1.036224564804493</v>
       </c>
       <c r="J2">
-        <v>1.011811613182109</v>
+        <v>1.047601294495798</v>
       </c>
       <c r="K2">
-        <v>1.021217538027295</v>
+        <v>1.045902290765331</v>
       </c>
       <c r="L2">
-        <v>1.002879695705867</v>
+        <v>1.05817791869641</v>
       </c>
       <c r="M2">
-        <v>1.007132422216256</v>
+        <v>1.065129616632391</v>
       </c>
       <c r="N2">
-        <v>1.013248501729242</v>
+        <v>1.04908900849553</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9995566889533245</v>
+        <v>1.044363936152056</v>
       </c>
       <c r="D3">
-        <v>1.017818806258853</v>
+        <v>1.044535441457997</v>
       </c>
       <c r="E3">
-        <v>1.001067367704449</v>
+        <v>1.057229716300947</v>
       </c>
       <c r="F3">
-        <v>1.006181681398224</v>
+        <v>1.064372322583019</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045061101099519</v>
+        <v>1.036710109334959</v>
       </c>
       <c r="J3">
-        <v>1.020059446374704</v>
+        <v>1.049081348839779</v>
       </c>
       <c r="K3">
-        <v>1.028228657766338</v>
+        <v>1.047119593856062</v>
       </c>
       <c r="L3">
-        <v>1.011686609555028</v>
+        <v>1.059781122437802</v>
       </c>
       <c r="M3">
-        <v>1.016736072790315</v>
+        <v>1.066905673626248</v>
       </c>
       <c r="N3">
-        <v>1.02150804779101</v>
+        <v>1.050571164686444</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005912626999513</v>
+        <v>1.045549153574736</v>
       </c>
       <c r="D4">
-        <v>1.022734589016733</v>
+        <v>1.045442750988007</v>
       </c>
       <c r="E4">
-        <v>1.007116026843918</v>
+        <v>1.058384543270812</v>
       </c>
       <c r="F4">
-        <v>1.0127317438485</v>
+        <v>1.065638702044659</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047227644340033</v>
+        <v>1.037020939795164</v>
       </c>
       <c r="J4">
-        <v>1.025166286974841</v>
+        <v>1.050034738674543</v>
       </c>
       <c r="K4">
-        <v>1.03256615735355</v>
+        <v>1.047903068162163</v>
       </c>
       <c r="L4">
-        <v>1.017129319727308</v>
+        <v>1.060813187309106</v>
       </c>
       <c r="M4">
-        <v>1.022678898591755</v>
+        <v>1.068049954015961</v>
       </c>
       <c r="N4">
-        <v>1.026622140690562</v>
+        <v>1.051525908444128</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.008523651357774</v>
+        <v>1.046046461771276</v>
       </c>
       <c r="D5">
-        <v>1.02475430094078</v>
+        <v>1.045823315221799</v>
       </c>
       <c r="E5">
-        <v>1.009598810490532</v>
+        <v>1.058868888230019</v>
       </c>
       <c r="F5">
-        <v>1.015421723206321</v>
+        <v>1.0661700253238</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048113177595233</v>
+        <v>1.037150817596677</v>
       </c>
       <c r="J5">
-        <v>1.027262344020147</v>
+        <v>1.050434530561846</v>
       </c>
       <c r="K5">
-        <v>1.034345520869008</v>
+        <v>1.048231448801049</v>
       </c>
       <c r="L5">
-        <v>1.019361020632231</v>
+        <v>1.061245818274871</v>
       </c>
       <c r="M5">
-        <v>1.025117492684955</v>
+        <v>1.068529849385963</v>
       </c>
       <c r="N5">
-        <v>1.028721174377293</v>
+        <v>1.051926268081768</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008958616214425</v>
+        <v>1.046129906479692</v>
       </c>
       <c r="D6">
-        <v>1.025090772914579</v>
+        <v>1.045887163120285</v>
       </c>
       <c r="E6">
-        <v>1.010012298630333</v>
+        <v>1.058950145492738</v>
       </c>
       <c r="F6">
-        <v>1.015869799531981</v>
+        <v>1.066259175272466</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048260430190011</v>
+        <v>1.037172578200219</v>
       </c>
       <c r="J6">
-        <v>1.027611411578497</v>
+        <v>1.050501598461705</v>
       </c>
       <c r="K6">
-        <v>1.034641791694227</v>
+        <v>1.048286527591106</v>
       </c>
       <c r="L6">
-        <v>1.019732554625914</v>
+        <v>1.061318386343155</v>
       </c>
       <c r="M6">
-        <v>1.025523577204206</v>
+        <v>1.068610358601236</v>
       </c>
       <c r="N6">
-        <v>1.029070737651615</v>
+        <v>1.051993431225738</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005947748934235</v>
+        <v>1.045555802363934</v>
       </c>
       <c r="D7">
-        <v>1.022761756008806</v>
+        <v>1.045447839499017</v>
       </c>
       <c r="E7">
-        <v>1.007149431511096</v>
+        <v>1.058391019574734</v>
       </c>
       <c r="F7">
-        <v>1.012767930743928</v>
+        <v>1.065645805752881</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047239573912867</v>
+        <v>1.037022678344909</v>
       </c>
       <c r="J7">
-        <v>1.025194489254486</v>
+        <v>1.050040084671081</v>
       </c>
       <c r="K7">
-        <v>1.032590102292622</v>
+        <v>1.047907459878959</v>
       </c>
       <c r="L7">
-        <v>1.017159355534796</v>
+        <v>1.060818973021876</v>
       </c>
       <c r="M7">
-        <v>1.022711711686786</v>
+        <v>1.068056370927043</v>
       </c>
       <c r="N7">
-        <v>1.026650383020679</v>
+        <v>1.051531262032595</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9928311418491208</v>
+        <v>1.043147961201136</v>
       </c>
       <c r="D8">
-        <v>1.012618798261189</v>
+        <v>1.043604126254273</v>
       </c>
       <c r="E8">
-        <v>0.9946593637416536</v>
+        <v>1.056044186863311</v>
       </c>
       <c r="F8">
-        <v>0.9992473905740484</v>
+        <v>1.063072933716577</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042753036605669</v>
+        <v>1.036389354295862</v>
       </c>
       <c r="J8">
-        <v>1.014649361086279</v>
+        <v>1.048102387474065</v>
       </c>
       <c r="K8">
-        <v>1.023630510381849</v>
+        <v>1.046314562649052</v>
       </c>
       <c r="L8">
-        <v>1.005912166644099</v>
+        <v>1.058720843574798</v>
       </c>
       <c r="M8">
-        <v>1.010437566092491</v>
+        <v>1.065730882459461</v>
       </c>
       <c r="N8">
-        <v>1.01609027956093</v>
+        <v>1.049590813083302</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9673190422367013</v>
+        <v>1.038872794073152</v>
       </c>
       <c r="D9">
-        <v>0.99291895864937</v>
+        <v>1.040326324785267</v>
       </c>
       <c r="E9">
-        <v>0.9702790849532091</v>
+        <v>1.051870247374375</v>
       </c>
       <c r="F9">
-        <v>0.9729045676662239</v>
+        <v>1.058503212356483</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033878619430694</v>
+        <v>1.035247409289139</v>
       </c>
       <c r="J9">
-        <v>0.9940810847810269</v>
+        <v>1.044654170575951</v>
       </c>
       <c r="K9">
-        <v>1.006127975132252</v>
+        <v>1.043474853824204</v>
       </c>
       <c r="L9">
-        <v>0.983873499922566</v>
+        <v>1.054981908886811</v>
       </c>
       <c r="M9">
-        <v>0.9864530986981811</v>
+        <v>1.061594087867622</v>
       </c>
       <c r="N9">
-        <v>0.9954927939441099</v>
+        <v>1.046137699321677</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9482165978207155</v>
+        <v>1.035999666496503</v>
       </c>
       <c r="D10">
-        <v>0.9782070523506806</v>
+        <v>1.038120710853524</v>
       </c>
       <c r="E10">
-        <v>0.951945556404674</v>
+        <v>1.049060147747418</v>
       </c>
       <c r="F10">
-        <v>0.9531295128855233</v>
+        <v>1.055430888433171</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0271396726702</v>
+        <v>1.034468249485784</v>
       </c>
       <c r="J10">
-        <v>0.9786468448197952</v>
+        <v>1.04233156844864</v>
       </c>
       <c r="K10">
-        <v>0.9929812581545228</v>
+        <v>1.041558749450359</v>
       </c>
       <c r="L10">
-        <v>0.9672402597190419</v>
+        <v>1.052459723856508</v>
       </c>
       <c r="M10">
-        <v>0.9683999360307197</v>
+        <v>1.058808469605546</v>
       </c>
       <c r="N10">
-        <v>0.9800366355918015</v>
+        <v>1.043811798832939</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9393040246093862</v>
+        <v>1.034749810911255</v>
       </c>
       <c r="D11">
-        <v>0.9713575804069987</v>
+        <v>1.037160599330654</v>
       </c>
       <c r="E11">
-        <v>0.9433674265587658</v>
+        <v>1.047836474450026</v>
       </c>
       <c r="F11">
-        <v>0.9438851523161398</v>
+        <v>1.054094040086571</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023975332015715</v>
+        <v>1.034126533423219</v>
       </c>
       <c r="J11">
-        <v>0.9714395495441179</v>
+        <v>1.041319965483853</v>
       </c>
       <c r="K11">
-        <v>0.9868406489869286</v>
+        <v>1.040723405676879</v>
       </c>
       <c r="L11">
-        <v>0.959442668894539</v>
+        <v>1.051360245812304</v>
       </c>
       <c r="M11">
-        <v>0.9599490174670242</v>
+        <v>1.057595337098881</v>
       </c>
       <c r="N11">
-        <v>0.9728191051301444</v>
+        <v>1.042798759275909</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9358810472195033</v>
+        <v>1.034284665576267</v>
       </c>
       <c r="D12">
-        <v>0.9687297357819838</v>
+        <v>1.03680319134745</v>
       </c>
       <c r="E12">
-        <v>0.9400686242125947</v>
+        <v>1.04738088326129</v>
       </c>
       <c r="F12">
-        <v>0.9403313870513615</v>
+        <v>1.053596464840359</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022757240578627</v>
+        <v>1.033998945362516</v>
       </c>
       <c r="J12">
-        <v>0.9686707665103511</v>
+        <v>1.040943303017719</v>
       </c>
       <c r="K12">
-        <v>0.9844815887807985</v>
+        <v>1.040412254137983</v>
       </c>
       <c r="L12">
-        <v>0.9564417195428667</v>
+        <v>1.050950716869762</v>
       </c>
       <c r="M12">
-        <v>0.9566985574744727</v>
+        <v>1.057143652833738</v>
       </c>
       <c r="N12">
-        <v>0.9700463901068856</v>
+        <v>1.04242156190587</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9366206804654834</v>
+        <v>1.034384481677231</v>
       </c>
       <c r="D13">
-        <v>0.9692974221383586</v>
+        <v>1.036879892164473</v>
       </c>
       <c r="E13">
-        <v>0.9407816297648041</v>
+        <v>1.047478657781366</v>
       </c>
       <c r="F13">
-        <v>0.9410994445351628</v>
+        <v>1.053703242653001</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023020565675061</v>
+        <v>1.034026343412425</v>
       </c>
       <c r="J13">
-        <v>0.9692690718616223</v>
+        <v>1.041024139837319</v>
       </c>
       <c r="K13">
-        <v>0.9849913568888746</v>
+        <v>1.040479036749065</v>
       </c>
       <c r="L13">
-        <v>0.9570904518926155</v>
+        <v>1.051038613993602</v>
       </c>
       <c r="M13">
-        <v>0.9574011399247646</v>
+        <v>1.057240589675839</v>
       </c>
       <c r="N13">
-        <v>0.9706455451203821</v>
+        <v>1.042502513523025</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9390234822394243</v>
+        <v>1.034711380228577</v>
       </c>
       <c r="D14">
-        <v>0.9711421462777179</v>
+        <v>1.03713107189242</v>
       </c>
       <c r="E14">
-        <v>0.9430971516796769</v>
+        <v>1.04779883703292</v>
       </c>
       <c r="F14">
-        <v>0.9435939629525563</v>
+        <v>1.054052931156597</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023875553704167</v>
+        <v>1.034116000456189</v>
       </c>
       <c r="J14">
-        <v>0.9712126376593401</v>
+        <v>1.041288849097338</v>
       </c>
       <c r="K14">
-        <v>0.9866473155023009</v>
+        <v>1.040697703596763</v>
       </c>
       <c r="L14">
-        <v>0.9591968444113224</v>
+        <v>1.051326417320296</v>
       </c>
       <c r="M14">
-        <v>0.9596827148629177</v>
+        <v>1.057558022797141</v>
       </c>
       <c r="N14">
-        <v>0.9725918710044629</v>
+        <v>1.042767598700557</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9404884746941343</v>
+        <v>1.034912674054162</v>
       </c>
       <c r="D15">
-        <v>0.9722672592442801</v>
+        <v>1.037285728115654</v>
       </c>
       <c r="E15">
-        <v>0.9445083506982339</v>
+        <v>1.047995968066308</v>
       </c>
       <c r="F15">
-        <v>0.945114413925266</v>
+        <v>1.054268250954221</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02439648499332</v>
+        <v>1.03417115348034</v>
       </c>
       <c r="J15">
-        <v>0.972397543129742</v>
+        <v>1.041451824228961</v>
       </c>
       <c r="K15">
-        <v>0.987656877445243</v>
+        <v>1.040832315951941</v>
       </c>
       <c r="L15">
-        <v>0.9604802857988579</v>
+        <v>1.051503591334774</v>
       </c>
       <c r="M15">
-        <v>0.9610731500485026</v>
+        <v>1.057753460754267</v>
       </c>
       <c r="N15">
-        <v>0.9737784591765434</v>
+        <v>1.04293080527556</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9487933007439312</v>
+        <v>1.036082491460411</v>
       </c>
       <c r="D16">
-        <v>0.9786506027836661</v>
+        <v>1.038184321967493</v>
       </c>
       <c r="E16">
-        <v>0.9525000741403004</v>
+        <v>1.049141211328293</v>
       </c>
       <c r="F16">
-        <v>0.9537272664824993</v>
+        <v>1.055519470744803</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027344033671372</v>
+        <v>1.034490836026149</v>
       </c>
       <c r="J16">
-        <v>0.9791130936530512</v>
+        <v>1.04239857904956</v>
       </c>
       <c r="K16">
-        <v>0.9933784840189627</v>
+        <v>1.041614067761143</v>
       </c>
       <c r="L16">
-        <v>0.9677440102812557</v>
+        <v>1.052532535177652</v>
       </c>
       <c r="M16">
-        <v>0.9689461508507894</v>
+        <v>1.058888832419088</v>
       </c>
       <c r="N16">
-        <v>0.98050354655188</v>
+        <v>1.043878904596599</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9538208559982226</v>
+        <v>1.036814723291158</v>
       </c>
       <c r="D17">
-        <v>0.9825190449231791</v>
+        <v>1.038746616704037</v>
       </c>
       <c r="E17">
-        <v>0.9573314707796345</v>
+        <v>1.049857728333324</v>
       </c>
       <c r="F17">
-        <v>0.9589362824957842</v>
+        <v>1.056302562077928</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029123389213807</v>
+        <v>1.03469019812643</v>
       </c>
       <c r="J17">
-        <v>0.9831770696721385</v>
+        <v>1.042990858393264</v>
       </c>
       <c r="K17">
-        <v>0.9968406819030615</v>
+        <v>1.042102912871944</v>
       </c>
       <c r="L17">
-        <v>0.9721314144927269</v>
+        <v>1.053175975051261</v>
       </c>
       <c r="M17">
-        <v>0.9737047677759583</v>
+        <v>1.059599141635935</v>
       </c>
       <c r="N17">
-        <v>0.984573293883059</v>
+        <v>1.044472025044906</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9566927591964195</v>
+        <v>1.03724126656</v>
       </c>
       <c r="D18">
-        <v>0.9847301311747605</v>
+        <v>1.039074106179298</v>
       </c>
       <c r="E18">
-        <v>0.9600891265359023</v>
+        <v>1.050274998689245</v>
       </c>
       <c r="F18">
-        <v>0.9619102342088032</v>
+        <v>1.056758699886982</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030137938527711</v>
+        <v>1.034806064993301</v>
       </c>
       <c r="J18">
-        <v>0.9854979610717841</v>
+        <v>1.04333575703267</v>
       </c>
       <c r="K18">
-        <v>0.9988177529952755</v>
+        <v>1.042387503250818</v>
       </c>
       <c r="L18">
-        <v>0.97463427120611</v>
+        <v>1.053550574930407</v>
       </c>
       <c r="M18">
-        <v>0.9764205157292152</v>
+        <v>1.060012785284146</v>
       </c>
       <c r="N18">
-        <v>0.986897481214702</v>
+        <v>1.044817413479941</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9576621556602021</v>
+        <v>1.037386613408815</v>
       </c>
       <c r="D19">
-        <v>0.9854766788179778</v>
+        <v>1.039185689494357</v>
       </c>
       <c r="E19">
-        <v>0.9610196026398591</v>
+        <v>1.05041716574752</v>
       </c>
       <c r="F19">
-        <v>0.9629138205766947</v>
+        <v>1.056914125851093</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030480069952923</v>
+        <v>1.034845502003679</v>
       </c>
       <c r="J19">
-        <v>0.9862812622271941</v>
+        <v>1.043453262879873</v>
       </c>
       <c r="K19">
-        <v>0.9994849846979234</v>
+        <v>1.04248444935342</v>
       </c>
       <c r="L19">
-        <v>0.9754785418836245</v>
+        <v>1.053678184633591</v>
       </c>
       <c r="M19">
-        <v>0.9773367888292105</v>
+        <v>1.060153714725548</v>
       </c>
       <c r="N19">
-        <v>0.9876818947475986</v>
+        <v>1.044935086198925</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9532878175408431</v>
+        <v>1.036736219357073</v>
       </c>
       <c r="D20">
-        <v>0.9821087597211577</v>
+        <v>1.03868633836247</v>
       </c>
       <c r="E20">
-        <v>0.9568194624574159</v>
+        <v>1.049780921522126</v>
       </c>
       <c r="F20">
-        <v>0.9583841766811219</v>
+        <v>1.056218608780924</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.028934930021778</v>
+        <v>1.034668851721146</v>
       </c>
       <c r="J20">
-        <v>0.9827462528211094</v>
+        <v>1.042927371318608</v>
       </c>
       <c r="K20">
-        <v>0.996473673511309</v>
+        <v>1.042050520886072</v>
       </c>
       <c r="L20">
-        <v>0.9716666024291131</v>
+        <v>1.053107013451609</v>
       </c>
       <c r="M20">
-        <v>0.9732005104377029</v>
+        <v>1.059523001458359</v>
       </c>
       <c r="N20">
-        <v>0.984141865222686</v>
+        <v>1.044408447811322</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9383191714342447</v>
+        <v>1.03461514162442</v>
       </c>
       <c r="D21">
-        <v>0.9706013384575087</v>
+        <v>1.037057127401261</v>
       </c>
       <c r="E21">
-        <v>0.94241854694867</v>
+        <v>1.047704581855017</v>
       </c>
       <c r="F21">
-        <v>0.9428628661439108</v>
+        <v>1.053949984754496</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023625013206951</v>
+        <v>1.034089616963866</v>
       </c>
       <c r="J21">
-        <v>0.970642956850606</v>
+        <v>1.04121092406014</v>
       </c>
       <c r="K21">
-        <v>0.9861619356854822</v>
+        <v>1.040633335755076</v>
       </c>
       <c r="L21">
-        <v>0.9585795924073498</v>
+        <v>1.051241697946822</v>
       </c>
       <c r="M21">
-        <v>0.9590140745188417</v>
+        <v>1.057464576513152</v>
       </c>
       <c r="N21">
-        <v>0.9720213811836373</v>
+        <v>1.042689563000867</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9282458642813808</v>
+        <v>1.033276354178588</v>
       </c>
       <c r="D22">
-        <v>0.9628740646301998</v>
+        <v>1.036028256567091</v>
       </c>
       <c r="E22">
-        <v>0.9327016443079474</v>
+        <v>1.046392930701566</v>
       </c>
       <c r="F22">
-        <v>0.9323973264025828</v>
+        <v>1.05251774965392</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.020035337455371</v>
+        <v>1.033721609226967</v>
       </c>
       <c r="J22">
-        <v>0.9624936894541819</v>
+        <v>1.040126460739078</v>
       </c>
       <c r="K22">
-        <v>0.9792187018668177</v>
+        <v>1.039737266219952</v>
       </c>
       <c r="L22">
-        <v>0.9497355506628703</v>
+        <v>1.050062325422033</v>
       </c>
       <c r="M22">
-        <v>0.9494384897369306</v>
+        <v>1.05616414077806</v>
       </c>
       <c r="N22">
-        <v>0.963860540892776</v>
+        <v>1.0416035596175</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9336552066368763</v>
+        <v>1.033986570711451</v>
       </c>
       <c r="D23">
-        <v>0.9670218080026429</v>
+        <v>1.036574115340312</v>
       </c>
       <c r="E23">
-        <v>0.937922233082604</v>
+        <v>1.047088857337368</v>
       </c>
       <c r="F23">
-        <v>0.9380194529906052</v>
+        <v>1.053277570927771</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021964406505372</v>
+        <v>1.033917061961973</v>
       </c>
       <c r="J23">
-        <v>0.9668701447831843</v>
+        <v>1.040701861585184</v>
       </c>
       <c r="K23">
-        <v>0.9829474293760323</v>
+        <v>1.040212772284021</v>
       </c>
       <c r="L23">
-        <v>0.9544884692793215</v>
+        <v>1.050688166034236</v>
       </c>
       <c r="M23">
-        <v>0.9545834605061772</v>
+        <v>1.056854126286768</v>
       </c>
       <c r="N23">
-        <v>0.9682432112903324</v>
+        <v>1.042179777598807</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9535288607229878</v>
+        <v>1.036771693620411</v>
       </c>
       <c r="D24">
-        <v>0.9822942891154098</v>
+        <v>1.038713577056362</v>
       </c>
       <c r="E24">
-        <v>0.9570510024862741</v>
+        <v>1.049815629258114</v>
       </c>
       <c r="F24">
-        <v>0.9586338472019601</v>
+        <v>1.056256545595673</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029020158263518</v>
+        <v>1.03467849853323</v>
       </c>
       <c r="J24">
-        <v>0.9829410726148319</v>
+        <v>1.042956060148992</v>
       </c>
       <c r="K24">
-        <v>0.9966396389503264</v>
+        <v>1.042074196251941</v>
       </c>
       <c r="L24">
-        <v>0.9718768036930668</v>
+        <v>1.053138176415826</v>
       </c>
       <c r="M24">
-        <v>0.9734285464671162</v>
+        <v>1.059557407989299</v>
       </c>
       <c r="N24">
-        <v>0.9843369616828618</v>
+        <v>1.044437177383135</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9742427247097766</v>
+        <v>1.039981984768865</v>
       </c>
       <c r="D25">
-        <v>0.9982603263921225</v>
+        <v>1.041177242181193</v>
       </c>
       <c r="E25">
-        <v>0.9769071892859403</v>
+        <v>1.0529540364233</v>
       </c>
       <c r="F25">
-        <v>0.9800605577690021</v>
+        <v>1.059689027979011</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036303308945224</v>
+        <v>1.035545746895713</v>
       </c>
       <c r="J25">
-        <v>0.9996691419831213</v>
+        <v>1.045549728851564</v>
       </c>
       <c r="K25">
-        <v>1.010885708716121</v>
+        <v>1.044212967661898</v>
       </c>
       <c r="L25">
-        <v>0.9898748916850363</v>
+        <v>1.055953613663614</v>
       </c>
       <c r="M25">
-        <v>0.9929765008066275</v>
+        <v>1.062668326086619</v>
       </c>
       <c r="N25">
-        <v>1.001088786828391</v>
+        <v>1.047034529392763</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_191/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_191/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.042525944612522</v>
+        <v>0.9893062815937661</v>
       </c>
       <c r="D2">
-        <v>1.043127549228891</v>
+        <v>1.009894347414147</v>
       </c>
       <c r="E2">
-        <v>1.055437458977725</v>
+        <v>0.9912977788554292</v>
       </c>
       <c r="F2">
-        <v>1.062408188199581</v>
+        <v>0.9956116096757811</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036224564804493</v>
+        <v>1.041537531840828</v>
       </c>
       <c r="J2">
-        <v>1.047601294495798</v>
+        <v>1.011811613182109</v>
       </c>
       <c r="K2">
-        <v>1.045902290765331</v>
+        <v>1.021217538027295</v>
       </c>
       <c r="L2">
-        <v>1.05817791869641</v>
+        <v>1.002879695705867</v>
       </c>
       <c r="M2">
-        <v>1.065129616632391</v>
+        <v>1.007132422216255</v>
       </c>
       <c r="N2">
-        <v>1.04908900849553</v>
+        <v>1.013248501729242</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.044363936152056</v>
+        <v>0.9995566889533228</v>
       </c>
       <c r="D3">
-        <v>1.044535441457997</v>
+        <v>1.017818806258851</v>
       </c>
       <c r="E3">
-        <v>1.057229716300947</v>
+        <v>1.001067367704449</v>
       </c>
       <c r="F3">
-        <v>1.064372322583019</v>
+        <v>1.006181681398223</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036710109334959</v>
+        <v>1.045061101099518</v>
       </c>
       <c r="J3">
-        <v>1.049081348839779</v>
+        <v>1.020059446374703</v>
       </c>
       <c r="K3">
-        <v>1.047119593856062</v>
+        <v>1.028228657766337</v>
       </c>
       <c r="L3">
-        <v>1.059781122437802</v>
+        <v>1.011686609555028</v>
       </c>
       <c r="M3">
-        <v>1.066905673626248</v>
+        <v>1.016736072790315</v>
       </c>
       <c r="N3">
-        <v>1.050571164686444</v>
+        <v>1.021508047791009</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045549153574736</v>
+        <v>1.005912626999513</v>
       </c>
       <c r="D4">
-        <v>1.045442750988007</v>
+        <v>1.022734589016733</v>
       </c>
       <c r="E4">
-        <v>1.058384543270812</v>
+        <v>1.007116026843918</v>
       </c>
       <c r="F4">
-        <v>1.065638702044659</v>
+        <v>1.012731743848499</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037020939795164</v>
+        <v>1.047227644340033</v>
       </c>
       <c r="J4">
-        <v>1.050034738674543</v>
+        <v>1.02516628697484</v>
       </c>
       <c r="K4">
-        <v>1.047903068162163</v>
+        <v>1.032566157353551</v>
       </c>
       <c r="L4">
-        <v>1.060813187309106</v>
+        <v>1.017129319727308</v>
       </c>
       <c r="M4">
-        <v>1.068049954015961</v>
+        <v>1.022678898591755</v>
       </c>
       <c r="N4">
-        <v>1.051525908444128</v>
+        <v>1.026622140690561</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046046461771276</v>
+        <v>1.008523651357775</v>
       </c>
       <c r="D5">
-        <v>1.045823315221799</v>
+        <v>1.024754300940782</v>
       </c>
       <c r="E5">
-        <v>1.058868888230019</v>
+        <v>1.009598810490532</v>
       </c>
       <c r="F5">
-        <v>1.0661700253238</v>
+        <v>1.015421723206321</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037150817596677</v>
+        <v>1.048113177595234</v>
       </c>
       <c r="J5">
-        <v>1.050434530561846</v>
+        <v>1.027262344020148</v>
       </c>
       <c r="K5">
-        <v>1.048231448801049</v>
+        <v>1.03434552086901</v>
       </c>
       <c r="L5">
-        <v>1.061245818274871</v>
+        <v>1.019361020632232</v>
       </c>
       <c r="M5">
-        <v>1.068529849385963</v>
+        <v>1.025117492684956</v>
       </c>
       <c r="N5">
-        <v>1.051926268081768</v>
+        <v>1.028721174377295</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046129906479692</v>
+        <v>1.008958616214426</v>
       </c>
       <c r="D6">
-        <v>1.045887163120285</v>
+        <v>1.02509077291458</v>
       </c>
       <c r="E6">
-        <v>1.058950145492738</v>
+        <v>1.010012298630335</v>
       </c>
       <c r="F6">
-        <v>1.066259175272466</v>
+        <v>1.015869799531982</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037172578200219</v>
+        <v>1.048260430190011</v>
       </c>
       <c r="J6">
-        <v>1.050501598461705</v>
+        <v>1.027611411578498</v>
       </c>
       <c r="K6">
-        <v>1.048286527591106</v>
+        <v>1.034641791694227</v>
       </c>
       <c r="L6">
-        <v>1.061318386343155</v>
+        <v>1.019732554625915</v>
       </c>
       <c r="M6">
-        <v>1.068610358601236</v>
+        <v>1.025523577204208</v>
       </c>
       <c r="N6">
-        <v>1.051993431225738</v>
+        <v>1.029070737651615</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045555802363934</v>
+        <v>1.005947748934235</v>
       </c>
       <c r="D7">
-        <v>1.045447839499017</v>
+        <v>1.022761756008806</v>
       </c>
       <c r="E7">
-        <v>1.058391019574734</v>
+        <v>1.007149431511096</v>
       </c>
       <c r="F7">
-        <v>1.065645805752881</v>
+        <v>1.012767930743928</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037022678344909</v>
+        <v>1.047239573912867</v>
       </c>
       <c r="J7">
-        <v>1.050040084671081</v>
+        <v>1.025194489254487</v>
       </c>
       <c r="K7">
-        <v>1.047907459878959</v>
+        <v>1.032590102292622</v>
       </c>
       <c r="L7">
-        <v>1.060818973021876</v>
+        <v>1.017159355534796</v>
       </c>
       <c r="M7">
-        <v>1.068056370927043</v>
+        <v>1.022711711686786</v>
       </c>
       <c r="N7">
-        <v>1.051531262032595</v>
+        <v>1.026650383020679</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.043147961201136</v>
+        <v>0.9928311418491237</v>
       </c>
       <c r="D8">
-        <v>1.043604126254273</v>
+        <v>1.012618798261191</v>
       </c>
       <c r="E8">
-        <v>1.056044186863311</v>
+        <v>0.9946593637416565</v>
       </c>
       <c r="F8">
-        <v>1.063072933716577</v>
+        <v>0.9992473905740519</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036389354295862</v>
+        <v>1.04275303660567</v>
       </c>
       <c r="J8">
-        <v>1.048102387474065</v>
+        <v>1.014649361086282</v>
       </c>
       <c r="K8">
-        <v>1.046314562649052</v>
+        <v>1.023630510381852</v>
       </c>
       <c r="L8">
-        <v>1.058720843574798</v>
+        <v>1.005912166644102</v>
       </c>
       <c r="M8">
-        <v>1.065730882459461</v>
+        <v>1.010437566092494</v>
       </c>
       <c r="N8">
-        <v>1.049590813083302</v>
+        <v>1.016090279560933</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.038872794073152</v>
+        <v>0.9673190422367026</v>
       </c>
       <c r="D9">
-        <v>1.040326324785267</v>
+        <v>0.9929189586493712</v>
       </c>
       <c r="E9">
-        <v>1.051870247374375</v>
+        <v>0.9702790849532102</v>
       </c>
       <c r="F9">
-        <v>1.058503212356483</v>
+        <v>0.9729045676662252</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035247409289139</v>
+        <v>1.033878619430695</v>
       </c>
       <c r="J9">
-        <v>1.044654170575951</v>
+        <v>0.9940810847810284</v>
       </c>
       <c r="K9">
-        <v>1.043474853824204</v>
+        <v>1.006127975132253</v>
       </c>
       <c r="L9">
-        <v>1.054981908886811</v>
+        <v>0.9838734999225671</v>
       </c>
       <c r="M9">
-        <v>1.061594087867622</v>
+        <v>0.9864530986981824</v>
       </c>
       <c r="N9">
-        <v>1.046137699321677</v>
+        <v>0.9954927939441115</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035999666496503</v>
+        <v>0.948216597820717</v>
       </c>
       <c r="D10">
-        <v>1.038120710853524</v>
+        <v>0.9782070523506817</v>
       </c>
       <c r="E10">
-        <v>1.049060147747418</v>
+        <v>0.9519455564046738</v>
       </c>
       <c r="F10">
-        <v>1.055430888433171</v>
+        <v>0.9531295128855229</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034468249485784</v>
+        <v>1.0271396726702</v>
       </c>
       <c r="J10">
-        <v>1.04233156844864</v>
+        <v>0.9786468448197965</v>
       </c>
       <c r="K10">
-        <v>1.041558749450359</v>
+        <v>0.9929812581545238</v>
       </c>
       <c r="L10">
-        <v>1.052459723856508</v>
+        <v>0.9672402597190418</v>
       </c>
       <c r="M10">
-        <v>1.058808469605546</v>
+        <v>0.9683999360307194</v>
       </c>
       <c r="N10">
-        <v>1.043811798832939</v>
+        <v>0.980036635591803</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.034749810911255</v>
+        <v>0.9393040246093871</v>
       </c>
       <c r="D11">
-        <v>1.037160599330654</v>
+        <v>0.9713575804069996</v>
       </c>
       <c r="E11">
-        <v>1.047836474450026</v>
+        <v>0.9433674265587676</v>
       </c>
       <c r="F11">
-        <v>1.054094040086571</v>
+        <v>0.9438851523161415</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034126533423219</v>
+        <v>1.023975332015716</v>
       </c>
       <c r="J11">
-        <v>1.041319965483853</v>
+        <v>0.971439549544119</v>
       </c>
       <c r="K11">
-        <v>1.040723405676879</v>
+        <v>0.9868406489869294</v>
       </c>
       <c r="L11">
-        <v>1.051360245812304</v>
+        <v>0.9594426688945404</v>
       </c>
       <c r="M11">
-        <v>1.057595337098881</v>
+        <v>0.9599490174670258</v>
       </c>
       <c r="N11">
-        <v>1.042798759275909</v>
+        <v>0.9728191051301452</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034284665576267</v>
+        <v>0.9358810472195019</v>
       </c>
       <c r="D12">
-        <v>1.03680319134745</v>
+        <v>0.9687297357819827</v>
       </c>
       <c r="E12">
-        <v>1.04738088326129</v>
+        <v>0.9400686242125939</v>
       </c>
       <c r="F12">
-        <v>1.053596464840359</v>
+        <v>0.9403313870513603</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033998945362516</v>
+        <v>1.022757240578626</v>
       </c>
       <c r="J12">
-        <v>1.040943303017719</v>
+        <v>0.9686707665103498</v>
       </c>
       <c r="K12">
-        <v>1.040412254137983</v>
+        <v>0.9844815887807972</v>
       </c>
       <c r="L12">
-        <v>1.050950716869762</v>
+        <v>0.9564417195428656</v>
       </c>
       <c r="M12">
-        <v>1.057143652833738</v>
+        <v>0.9566985574744715</v>
       </c>
       <c r="N12">
-        <v>1.04242156190587</v>
+        <v>0.9700463901068843</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034384481677231</v>
+        <v>0.936620680465482</v>
       </c>
       <c r="D13">
-        <v>1.036879892164473</v>
+        <v>0.9692974221383576</v>
       </c>
       <c r="E13">
-        <v>1.047478657781366</v>
+        <v>0.9407816297648027</v>
       </c>
       <c r="F13">
-        <v>1.053703242653001</v>
+        <v>0.9410994445351615</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034026343412425</v>
+        <v>1.023020565675061</v>
       </c>
       <c r="J13">
-        <v>1.041024139837319</v>
+        <v>0.9692690718616208</v>
       </c>
       <c r="K13">
-        <v>1.040479036749065</v>
+        <v>0.9849913568888735</v>
       </c>
       <c r="L13">
-        <v>1.051038613993602</v>
+        <v>0.9570904518926144</v>
       </c>
       <c r="M13">
-        <v>1.057240589675839</v>
+        <v>0.9574011399247634</v>
       </c>
       <c r="N13">
-        <v>1.042502513523025</v>
+        <v>0.970645545120381</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.034711380228577</v>
+        <v>0.939023482239422</v>
       </c>
       <c r="D14">
-        <v>1.03713107189242</v>
+        <v>0.9711421462777157</v>
       </c>
       <c r="E14">
-        <v>1.04779883703292</v>
+        <v>0.9430971516796746</v>
       </c>
       <c r="F14">
-        <v>1.054052931156597</v>
+        <v>0.9435939629525539</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034116000456189</v>
+        <v>1.023875553704165</v>
       </c>
       <c r="J14">
-        <v>1.041288849097338</v>
+        <v>0.9712126376593379</v>
       </c>
       <c r="K14">
-        <v>1.040697703596763</v>
+        <v>0.9866473155022991</v>
       </c>
       <c r="L14">
-        <v>1.051326417320296</v>
+        <v>0.9591968444113201</v>
       </c>
       <c r="M14">
-        <v>1.057558022797141</v>
+        <v>0.9596827148629152</v>
       </c>
       <c r="N14">
-        <v>1.042767598700557</v>
+        <v>0.9725918710044607</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.034912674054162</v>
+        <v>0.9404884746941338</v>
       </c>
       <c r="D15">
-        <v>1.037285728115654</v>
+        <v>0.972267259244279</v>
       </c>
       <c r="E15">
-        <v>1.047995968066308</v>
+        <v>0.9445083506982336</v>
       </c>
       <c r="F15">
-        <v>1.054268250954221</v>
+        <v>0.9451144139252655</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03417115348034</v>
+        <v>1.02439648499332</v>
       </c>
       <c r="J15">
-        <v>1.041451824228961</v>
+        <v>0.9723975431297415</v>
       </c>
       <c r="K15">
-        <v>1.040832315951941</v>
+        <v>0.9876568774452421</v>
       </c>
       <c r="L15">
-        <v>1.051503591334774</v>
+        <v>0.9604802857988576</v>
       </c>
       <c r="M15">
-        <v>1.057753460754267</v>
+        <v>0.9610731500485021</v>
       </c>
       <c r="N15">
-        <v>1.04293080527556</v>
+        <v>0.9737784591765428</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036082491460411</v>
+        <v>0.9487933007439306</v>
       </c>
       <c r="D16">
-        <v>1.038184321967493</v>
+        <v>0.9786506027836659</v>
       </c>
       <c r="E16">
-        <v>1.049141211328293</v>
+        <v>0.9525000741402995</v>
       </c>
       <c r="F16">
-        <v>1.055519470744803</v>
+        <v>0.9537272664824983</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034490836026149</v>
+        <v>1.027344033671372</v>
       </c>
       <c r="J16">
-        <v>1.04239857904956</v>
+        <v>0.9791130936530509</v>
       </c>
       <c r="K16">
-        <v>1.041614067761143</v>
+        <v>0.9933784840189623</v>
       </c>
       <c r="L16">
-        <v>1.052532535177652</v>
+        <v>0.9677440102812548</v>
       </c>
       <c r="M16">
-        <v>1.058888832419088</v>
+        <v>0.9689461508507886</v>
       </c>
       <c r="N16">
-        <v>1.043878904596599</v>
+        <v>0.9805035465518799</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036814723291158</v>
+        <v>0.9538208559982212</v>
       </c>
       <c r="D17">
-        <v>1.038746616704037</v>
+        <v>0.9825190449231781</v>
       </c>
       <c r="E17">
-        <v>1.049857728333324</v>
+        <v>0.957331470779634</v>
       </c>
       <c r="F17">
-        <v>1.056302562077928</v>
+        <v>0.9589362824957836</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03469019812643</v>
+        <v>1.029123389213807</v>
       </c>
       <c r="J17">
-        <v>1.042990858393264</v>
+        <v>0.9831770696721371</v>
       </c>
       <c r="K17">
-        <v>1.042102912871944</v>
+        <v>0.9968406819030604</v>
       </c>
       <c r="L17">
-        <v>1.053175975051261</v>
+        <v>0.9721314144927264</v>
       </c>
       <c r="M17">
-        <v>1.059599141635935</v>
+        <v>0.9737047677759577</v>
       </c>
       <c r="N17">
-        <v>1.044472025044906</v>
+        <v>0.9845732938830576</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.03724126656</v>
+        <v>0.9566927591964174</v>
       </c>
       <c r="D18">
-        <v>1.039074106179298</v>
+        <v>0.9847301311747589</v>
       </c>
       <c r="E18">
-        <v>1.050274998689245</v>
+        <v>0.9600891265359004</v>
       </c>
       <c r="F18">
-        <v>1.056758699886982</v>
+        <v>0.9619102342088012</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034806064993301</v>
+        <v>1.03013793852771</v>
       </c>
       <c r="J18">
-        <v>1.04333575703267</v>
+        <v>0.9854979610717821</v>
       </c>
       <c r="K18">
-        <v>1.042387503250818</v>
+        <v>0.9988177529952739</v>
       </c>
       <c r="L18">
-        <v>1.053550574930407</v>
+        <v>0.9746342712061085</v>
       </c>
       <c r="M18">
-        <v>1.060012785284146</v>
+        <v>0.9764205157292132</v>
       </c>
       <c r="N18">
-        <v>1.044817413479941</v>
+        <v>0.9868974812147</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.037386613408815</v>
+        <v>0.9576621556602005</v>
       </c>
       <c r="D19">
-        <v>1.039185689494357</v>
+        <v>0.9854766788179763</v>
       </c>
       <c r="E19">
-        <v>1.05041716574752</v>
+        <v>0.961019602639858</v>
       </c>
       <c r="F19">
-        <v>1.056914125851093</v>
+        <v>0.9629138205766933</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034845502003679</v>
+        <v>1.030480069952922</v>
       </c>
       <c r="J19">
-        <v>1.043453262879873</v>
+        <v>0.9862812622271925</v>
       </c>
       <c r="K19">
-        <v>1.04248444935342</v>
+        <v>0.9994849846979219</v>
       </c>
       <c r="L19">
-        <v>1.053678184633591</v>
+        <v>0.9754785418836236</v>
       </c>
       <c r="M19">
-        <v>1.060153714725548</v>
+        <v>0.977336788829209</v>
       </c>
       <c r="N19">
-        <v>1.044935086198925</v>
+        <v>0.9876818947475969</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036736219357073</v>
+        <v>0.9532878175408411</v>
       </c>
       <c r="D20">
-        <v>1.03868633836247</v>
+        <v>0.9821087597211566</v>
       </c>
       <c r="E20">
-        <v>1.049780921522126</v>
+        <v>0.9568194624574144</v>
       </c>
       <c r="F20">
-        <v>1.056218608780924</v>
+        <v>0.95838417668112</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034668851721146</v>
+        <v>1.028934930021778</v>
       </c>
       <c r="J20">
-        <v>1.042927371318608</v>
+        <v>0.9827462528211075</v>
       </c>
       <c r="K20">
-        <v>1.042050520886072</v>
+        <v>0.9964736735113078</v>
       </c>
       <c r="L20">
-        <v>1.053107013451609</v>
+        <v>0.9716666024291115</v>
       </c>
       <c r="M20">
-        <v>1.059523001458359</v>
+        <v>0.9732005104377011</v>
       </c>
       <c r="N20">
-        <v>1.044408447811322</v>
+        <v>0.9841418652226844</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.03461514162442</v>
+        <v>0.9383191714342456</v>
       </c>
       <c r="D21">
-        <v>1.037057127401261</v>
+        <v>0.9706013384575094</v>
       </c>
       <c r="E21">
-        <v>1.047704581855017</v>
+        <v>0.9424185469486702</v>
       </c>
       <c r="F21">
-        <v>1.053949984754496</v>
+        <v>0.9428628661439116</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034089616963866</v>
+        <v>1.023625013206952</v>
       </c>
       <c r="J21">
-        <v>1.04121092406014</v>
+        <v>0.9706429568506069</v>
       </c>
       <c r="K21">
-        <v>1.040633335755076</v>
+        <v>0.9861619356854829</v>
       </c>
       <c r="L21">
-        <v>1.051241697946822</v>
+        <v>0.9585795924073502</v>
       </c>
       <c r="M21">
-        <v>1.057464576513152</v>
+        <v>0.9590140745188425</v>
       </c>
       <c r="N21">
-        <v>1.042689563000867</v>
+        <v>0.9720213811836382</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.033276354178588</v>
+        <v>0.9282458642813823</v>
       </c>
       <c r="D22">
-        <v>1.036028256567091</v>
+        <v>0.9628740646302011</v>
       </c>
       <c r="E22">
-        <v>1.046392930701566</v>
+        <v>0.9327016443079483</v>
       </c>
       <c r="F22">
-        <v>1.05251774965392</v>
+        <v>0.9323973264025838</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033721609226967</v>
+        <v>1.020035337455372</v>
       </c>
       <c r="J22">
-        <v>1.040126460739078</v>
+        <v>0.9624936894541832</v>
       </c>
       <c r="K22">
-        <v>1.039737266219952</v>
+        <v>0.9792187018668189</v>
       </c>
       <c r="L22">
-        <v>1.050062325422033</v>
+        <v>0.9497355506628712</v>
       </c>
       <c r="M22">
-        <v>1.05616414077806</v>
+        <v>0.9494384897369317</v>
       </c>
       <c r="N22">
-        <v>1.0416035596175</v>
+        <v>0.9638605408927775</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033986570711451</v>
+        <v>0.9336552066368758</v>
       </c>
       <c r="D23">
-        <v>1.036574115340312</v>
+        <v>0.9670218080026426</v>
       </c>
       <c r="E23">
-        <v>1.047088857337368</v>
+        <v>0.9379222330826045</v>
       </c>
       <c r="F23">
-        <v>1.053277570927771</v>
+        <v>0.9380194529906057</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033917061961973</v>
+        <v>1.021964406505371</v>
       </c>
       <c r="J23">
-        <v>1.040701861585184</v>
+        <v>0.9668701447831842</v>
       </c>
       <c r="K23">
-        <v>1.040212772284021</v>
+        <v>0.982947429376032</v>
       </c>
       <c r="L23">
-        <v>1.050688166034236</v>
+        <v>0.9544884692793221</v>
       </c>
       <c r="M23">
-        <v>1.056854126286768</v>
+        <v>0.9545834605061776</v>
       </c>
       <c r="N23">
-        <v>1.042179777598807</v>
+        <v>0.9682432112903321</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036771693620411</v>
+        <v>0.9535288607229843</v>
       </c>
       <c r="D24">
-        <v>1.038713577056362</v>
+        <v>0.9822942891154067</v>
       </c>
       <c r="E24">
-        <v>1.049815629258114</v>
+        <v>0.9570510024862717</v>
       </c>
       <c r="F24">
-        <v>1.056256545595673</v>
+        <v>0.9586338472019573</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03467849853323</v>
+        <v>1.029020158263516</v>
       </c>
       <c r="J24">
-        <v>1.042956060148992</v>
+        <v>0.9829410726148287</v>
       </c>
       <c r="K24">
-        <v>1.042074196251941</v>
+        <v>0.9966396389503231</v>
       </c>
       <c r="L24">
-        <v>1.053138176415826</v>
+        <v>0.9718768036930647</v>
       </c>
       <c r="M24">
-        <v>1.059557407989299</v>
+        <v>0.9734285464671135</v>
       </c>
       <c r="N24">
-        <v>1.044437177383135</v>
+        <v>0.9843369616828587</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.039981984768865</v>
+        <v>0.9742427247097782</v>
       </c>
       <c r="D25">
-        <v>1.041177242181193</v>
+        <v>0.9982603263921236</v>
       </c>
       <c r="E25">
-        <v>1.0529540364233</v>
+        <v>0.9769071892859418</v>
       </c>
       <c r="F25">
-        <v>1.059689027979011</v>
+        <v>0.9800605577690036</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035545746895713</v>
+        <v>1.036303308945225</v>
       </c>
       <c r="J25">
-        <v>1.045549728851564</v>
+        <v>0.9996691419831232</v>
       </c>
       <c r="K25">
-        <v>1.044212967661898</v>
+        <v>1.010885708716122</v>
       </c>
       <c r="L25">
-        <v>1.055953613663614</v>
+        <v>0.9898748916850376</v>
       </c>
       <c r="M25">
-        <v>1.062668326086619</v>
+        <v>0.9929765008066288</v>
       </c>
       <c r="N25">
-        <v>1.047034529392763</v>
+        <v>1.001088786828392</v>
       </c>
     </row>
   </sheetData>
